--- a/xlsx/日本汉字_intext.xlsx
+++ b/xlsx/日本汉字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="503">
   <si>
     <t>日本汉字</t>
   </si>
@@ -29,25 +29,25 @@
     <t>意音文字</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_日本汉字</t>
+    <t>政策_政策_维基百科_日本汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>傳統漢字</t>
+    <t>传统汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E5%8C%96%E6%B1%89%E5%AD%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語漢字</t>
+    <t>粤语汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>吳語字</t>
+    <t>吴语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_15924</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E6%9B%B8%E5%AF%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>日語書寫系統</t>
+    <t>日语书写系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%AB%94%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>變體假名</t>
+    <t>变体假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD%E7%BD%97%E9%A9%AC%E5%AD%97</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -365,19 +365,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E5%AD%97</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -539,13 +539,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD%E5%AD%97</t>
   </si>
   <si>
-    <t>吴语字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -569,19 +566,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -593,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -653,19 +650,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
@@ -719,19 +716,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -803,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -833,31 +830,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -875,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -911,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -929,19 +926,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%96%87</t>
@@ -953,25 +950,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
   </si>
   <si>
-    <t>汉字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>現代中文</t>
+    <t>现代中文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%8C%96%E5%AD%97</t>
   </si>
   <si>
-    <t>簡化字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>繁體字</t>
+    <t>繁体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
@@ -983,13 +974,13 @@
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%BC%A2%E5%92%8C%E8%BE%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>ja-大漢和辞典</t>
+    <t>ja-大汉和辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%AE%B6%E7%9C%BE</t>
   </si>
   <si>
-    <t>出家眾</t>
+    <t>出家众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A3%E5%94%90%E4%BD%BF</t>
@@ -1025,33 +1016,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E5%AF%AB</t>
   </si>
   <si>
-    <t>書寫</t>
+    <t>书写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E9%9B%86</t>
   </si>
   <si>
-    <t>萬葉集</t>
+    <t>万叶集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>發音</t>
+    <t>发音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>詩歌</t>
+    <t>诗歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>草書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
   </si>
   <si>
@@ -1061,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>平安時代</t>
+    <t>平安时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BA%E5%BB%9F</t>
   </si>
   <si>
-    <t>寺廟</t>
+    <t>寺庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A9%E8%A9%9E</t>
   </si>
   <si>
-    <t>助詞</t>
+    <t>助词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
   </si>
   <si>
-    <t>名詞</t>
+    <t>名词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%AE%B9%E8%AF%8D</t>
@@ -1091,19 +1079,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%A9%9E</t>
   </si>
   <si>
-    <t>動詞</t>
+    <t>动词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>外來語</t>
+    <t>外来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>語言學家</t>
+    <t>语言学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1115,25 +1103,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E8%AE%80</t>
   </si>
   <si>
-    <t>訓讀</t>
+    <t>训读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>常用漢字表</t>
+    <t>常用汉字表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -1145,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E8%89%AF%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>奈良時代</t>
+    <t>奈良时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D</t>
@@ -1163,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AE%89</t>
   </si>
   <si>
-    <t>長安</t>
+    <t>长安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%8C%E5%80%89%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>鎌倉時代</t>
+    <t>鎌仓时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%8B</t>
@@ -1199,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%87%E8%A8%93%E8%AE%80</t>
   </si>
   <si>
-    <t>漢文訓讀</t>
+    <t>汉文训读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%9F%E5%AD%97%E8%A8%93</t>
   </si>
   <si>
-    <t>熟字訓</t>
+    <t>熟字训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C</t>
@@ -1223,15 +1211,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%81%87%E5%90%8D%E9%81%A3</t>
   </si>
   <si>
-    <t>歷史假名遣</t>
+    <t>历史假名遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>六書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A0</t>
   </si>
   <si>
@@ -1253,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%B7%A1%E6%AF%94</t>
   </si>
   <si>
-    <t>紅淡比</t>
+    <t>红淡比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8E</t>
@@ -1283,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%81%B2</t>
   </si>
   <si>
-    <t>形聲</t>
+    <t>形声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%AF%9D</t>
@@ -1307,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%A3%AF</t>
   </si>
   <si>
-    <t>蓋飯</t>
+    <t>盖饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E5%9C%B0%E5%90%8D%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E8%A1%A8%E8%A8%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>外國地名日本漢字表記列表</t>
+    <t>外国地名日本汉字表记列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -1331,43 +1316,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E6%97%A5%E7%9B%9F%E8%BB%8D%E7%B8%BD%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>駐日盟軍總司令部</t>
+    <t>驻日盟军总司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>日語羅馬字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E4%B8%AD%E5%9C%8B%E5%8C%96</t>
   </si>
   <si>
-    <t>去中國化</t>
+    <t>去中国化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%B9%B4%E5%88%A5%E6%BC%A2%E5%AD%97%E9%85%8D%E7%95%B6%E8%A1%A8</t>
   </si>
   <si>
-    <t>學年別漢字配當表</t>
+    <t>学年别汉字配当表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JIS_X_0208</t>
@@ -1379,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%B7%A5%E6%A5%AD%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>日本工業規格</t>
+    <t>日本工业规格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E7%AC%A6%E7%BC%96%E7%A0%81</t>
@@ -1397,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代漢語</t>
+    <t>现代汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%BC%AB</t>
@@ -1421,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNS11643</t>
@@ -1433,13 +1415,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%BD%E5%B3%A0</t>
   </si>
   <si>
-    <t>壽峠</t>
+    <t>寿峠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%BD%E5%8D%A1</t>
   </si>
   <si>
-    <t>壽卡</t>
+    <t>寿卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
@@ -1457,19 +1439,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>異體字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%AF%9B%E6%B2%A2%E6%9D%B1</t>
   </si>
   <si>
-    <t>ja-毛沢東</t>
+    <t>ja-毛沢东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%89%E8%B0%B7</t>
@@ -1481,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E6%9C%9B%E5%85%88%E7%94%9F</t>
   </si>
   <si>
-    <t>絕望先生</t>
+    <t>绝望先生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%9F%BB</t>
   </si>
   <si>
-    <t>集韻</t>
+    <t>集韵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%95%99%E8%82%B2%E9%83%A8</t>
@@ -1517,31 +1496,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%96%87%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>越文漢字</t>
+    <t>越文汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9C%B0%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>Template talk-各地漢字</t>
+    <t>Template talk-各地汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩字</t>
+    <t>台闽字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣閩南語推薦用字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣客家語推薦用字</t>
+    <t>台湾客家语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%88%B6%E6%B1%89%E5%AD%97</t>
@@ -4499,7 +4475,7 @@
         <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4525,10 +4501,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4554,10 +4530,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4583,10 +4559,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4612,10 +4588,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4641,10 +4617,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4670,10 +4646,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>463</v>
@@ -4699,10 +4675,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>20</v>
@@ -4728,10 +4704,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4757,10 +4733,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4786,10 +4762,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4815,10 +4791,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4844,10 +4820,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4873,10 +4849,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4902,10 +4878,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4931,10 +4907,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4960,10 +4936,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4989,10 +4965,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>13</v>
@@ -5018,10 +4994,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5047,10 +5023,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5076,10 +5052,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5105,10 +5081,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>17</v>
@@ -5134,10 +5110,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5163,10 +5139,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5192,10 +5168,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5221,10 +5197,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5250,10 +5226,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5279,10 +5255,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5308,10 +5284,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5337,10 +5313,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5453,10 +5429,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5482,10 +5458,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5511,10 +5487,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5540,10 +5516,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5569,10 +5545,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5598,10 +5574,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5627,10 +5603,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5656,10 +5632,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5685,10 +5661,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5714,10 +5690,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5743,10 +5719,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5772,10 +5748,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -5801,10 +5777,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5830,10 +5806,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5859,10 +5835,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>12</v>
@@ -5888,10 +5864,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5917,10 +5893,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5946,10 +5922,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5975,10 +5951,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6004,10 +5980,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6033,10 +6009,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6062,10 +6038,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6091,10 +6067,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>6</v>
@@ -6120,10 +6096,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6149,10 +6125,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6178,10 +6154,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6207,10 +6183,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6236,10 +6212,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6265,10 +6241,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6294,10 +6270,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6323,10 +6299,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6352,10 +6328,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6381,10 +6357,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6410,10 +6386,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6439,10 +6415,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6468,10 +6444,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6497,10 +6473,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6526,10 +6502,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6555,10 +6531,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>26</v>
@@ -6584,10 +6560,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>8</v>
       </c>
       <c r="G162" t="n">
         <v>56</v>
@@ -6613,10 +6589,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6642,10 +6618,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="G164" t="n">
         <v>8</v>
@@ -6671,10 +6647,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6700,10 +6676,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6729,10 +6705,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6758,10 +6734,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>15</v>
@@ -6787,10 +6763,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>91</v>
@@ -6816,10 +6792,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6845,10 +6821,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6874,10 +6850,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6903,10 +6879,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6932,10 +6908,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>17</v>
@@ -6961,10 +6937,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6990,10 +6966,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>11</v>
@@ -7019,10 +6995,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7048,10 +7024,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7077,10 +7053,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>8</v>
@@ -7106,10 +7082,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7135,10 +7111,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7164,10 +7140,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7193,10 +7169,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7222,10 +7198,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7251,10 +7227,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7280,10 +7256,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -7309,10 +7285,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7338,10 +7314,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7367,10 +7343,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7396,10 +7372,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7425,10 +7401,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>13</v>
@@ -7454,10 +7430,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7483,10 +7459,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7512,10 +7488,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -7541,10 +7517,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7570,10 +7546,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7599,10 +7575,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7628,10 +7604,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7657,10 +7633,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7686,10 +7662,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>8</v>
@@ -7715,10 +7691,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7744,10 +7720,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7773,10 +7749,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7802,10 +7778,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7831,10 +7807,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7860,10 +7836,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7889,10 +7865,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>208</v>
+      </c>
+      <c r="F207" t="s">
         <v>209</v>
-      </c>
-      <c r="F207" t="s">
-        <v>210</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7918,10 +7894,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>216</v>
+      </c>
+      <c r="F208" t="s">
         <v>217</v>
-      </c>
-      <c r="F208" t="s">
-        <v>218</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7947,10 +7923,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>208</v>
+      </c>
+      <c r="F209" t="s">
         <v>209</v>
-      </c>
-      <c r="F209" t="s">
-        <v>210</v>
       </c>
       <c r="G209" t="n">
         <v>16</v>
@@ -7976,10 +7952,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>19</v>
@@ -8005,10 +7981,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>110</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8034,10 +8010,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -8063,10 +8039,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8092,10 +8068,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8121,10 +8097,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8150,10 +8126,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8179,10 +8155,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8208,10 +8184,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8237,10 +8213,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8266,10 +8242,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8295,10 +8271,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8324,10 +8300,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8353,10 +8329,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8382,10 +8358,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8411,10 +8387,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8440,10 +8416,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8469,10 +8445,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8498,10 +8474,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
@@ -8527,10 +8503,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8556,10 +8532,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8585,10 +8561,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>212</v>
+      </c>
+      <c r="F231" t="s">
         <v>213</v>
-      </c>
-      <c r="F231" t="s">
-        <v>214</v>
       </c>
       <c r="G231" t="n">
         <v>5</v>
@@ -8614,10 +8590,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8643,10 +8619,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>48</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8672,10 +8648,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8701,10 +8677,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8730,10 +8706,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8759,10 +8735,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8788,10 +8764,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8817,10 +8793,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8846,10 +8822,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>36</v>
@@ -8875,10 +8851,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8904,10 +8880,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8933,10 +8909,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F243" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -8991,10 +8967,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9020,10 +8996,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9049,10 +9025,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9078,10 +9054,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9107,10 +9083,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9136,10 +9112,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9165,10 +9141,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9194,10 +9170,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9223,10 +9199,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>200</v>
+      </c>
+      <c r="F253" t="s">
         <v>201</v>
-      </c>
-      <c r="F253" t="s">
-        <v>202</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -9252,10 +9228,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>194</v>
+      </c>
+      <c r="F254" t="s">
         <v>195</v>
-      </c>
-      <c r="F254" t="s">
-        <v>196</v>
       </c>
       <c r="G254" t="n">
         <v>16</v>
@@ -9281,10 +9257,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>196</v>
+      </c>
+      <c r="F255" t="s">
         <v>197</v>
-      </c>
-      <c r="F255" t="s">
-        <v>198</v>
       </c>
       <c r="G255" t="n">
         <v>19</v>
@@ -9310,10 +9286,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>124</v>
       </c>
       <c r="G256" t="n">
         <v>10</v>
@@ -9339,10 +9315,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9368,10 +9344,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9397,10 +9373,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9426,10 +9402,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9455,10 +9431,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9484,10 +9460,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>208</v>
+      </c>
+      <c r="F262" t="s">
         <v>209</v>
-      </c>
-      <c r="F262" t="s">
-        <v>210</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9513,10 +9489,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -9542,10 +9518,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F264" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G264" t="n">
         <v>6</v>
@@ -9571,10 +9547,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F265" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9600,10 +9576,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F266" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G266" t="n">
         <v>8</v>
@@ -9629,10 +9605,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F267" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9658,10 +9634,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F268" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G268" t="n">
         <v>4</v>
@@ -9687,10 +9663,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>196</v>
+      </c>
+      <c r="F269" t="s">
         <v>197</v>
-      </c>
-      <c r="F269" t="s">
-        <v>198</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9719,7 +9695,7 @@
         <v>173</v>
       </c>
       <c r="F270" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9745,10 +9721,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>174</v>
+      </c>
+      <c r="F271" t="s">
         <v>175</v>
-      </c>
-      <c r="F271" t="s">
-        <v>176</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -9774,10 +9750,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -9803,10 +9779,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>176</v>
+      </c>
+      <c r="F273" t="s">
         <v>177</v>
-      </c>
-      <c r="F273" t="s">
-        <v>178</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -9832,10 +9808,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>180</v>
+      </c>
+      <c r="F274" t="s">
         <v>181</v>
-      </c>
-      <c r="F274" t="s">
-        <v>182</v>
       </c>
       <c r="G274" t="n">
         <v>5</v>
@@ -9890,10 +9866,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>174</v>
+      </c>
+      <c r="F276" t="s">
         <v>175</v>
-      </c>
-      <c r="F276" t="s">
-        <v>176</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -9948,10 +9924,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F278" t="s">
-        <v>506</v>
+        <v>185</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -9977,10 +9953,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F279" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10035,10 +10011,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F281" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10122,10 +10098,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>238</v>
+      </c>
+      <c r="F284" t="s">
         <v>239</v>
-      </c>
-      <c r="F284" t="s">
-        <v>240</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10180,10 +10156,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>228</v>
+      </c>
+      <c r="F286" t="s">
         <v>229</v>
-      </c>
-      <c r="F286" t="s">
-        <v>230</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
